--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_16.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>665779.8984732988</v>
+        <v>639343.3431633484</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443407</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.0044347</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -662,70 +662,70 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E2" t="n">
+      <c r="T2" t="n">
+        <v>31.1509994400877</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,16 +750,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V3" t="n">
-        <v>69.88924827535223</v>
-      </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>110.9174757594852</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -908,61 +908,61 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="H5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71.73751301002207</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>96.34773862374156</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>8.311618392921636</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
         <v>205.5178444382804</v>
@@ -1278,7 +1278,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>9.211010870930398</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>46.81577624213776</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,22 +1497,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>14.48693373137006</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.5178444382804</v>
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1683,31 +1683,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>88.20063636222352</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1740,16 +1740,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,55 +1853,55 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1932,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>101.4502042303407</v>
       </c>
       <c r="T18" t="n">
-        <v>68.43462942837232</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1986,10 +1986,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2123,19 +2123,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2160,19 +2160,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>63.9067613594508</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>12.67133588836058</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2239,64 +2239,64 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2375,10 +2375,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,10 +2406,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>84.4273908978296</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2555,10 +2555,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2597,10 +2597,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -2609,10 +2609,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>102.3382270926889</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2637,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2652,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>34.50879137443848</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2697,10 +2697,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>165.6582884690006</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2755,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2843,10 +2843,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U29" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
@@ -2855,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>149.3442691106105</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>76.44328121791874</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,22 +2919,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3159,16 +3159,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>192.0114889487158</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>98.10479885422598</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3202,43 +3202,43 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3308,22 +3308,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="V35" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3348,25 +3348,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>33.97713994549451</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>80.38627963120109</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3427,67 +3427,67 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,14 +3503,14 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3627,19 +3627,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
@@ -3648,7 +3648,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>40.7733497831792</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3700,16 +3700,16 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3746,19 +3746,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,13 +3785,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>31.15099944008764</v>
       </c>
       <c r="T41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>29.6610036078781</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3828,13 +3828,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>115.2824891339207</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,19 +3986,19 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>9.211010870930398</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,22 +4019,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
       <c r="U44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4053,31 +4053,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>38.18157623379952</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4107,13 +4107,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>8.172609644471923</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4189,19 +4189,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
         <v>16.44142755506243</v>
@@ -4352,28 +4352,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>269.2955212176533</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>269.2955212176533</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>269.2955212176533</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>269.2955212176533</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>269.2955212176533</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4422,37 +4422,37 @@
         <v>752.1869855945927</v>
       </c>
       <c r="O3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>339.8907214957869</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>269.2955212176533</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W3" t="n">
-        <v>269.2955212176533</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X3" t="n">
-        <v>269.2955212176533</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y3" t="n">
-        <v>269.2955212176533</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4483,7 +4483,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J4" t="n">
         <v>38.93586374282289</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C5" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D5" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E5" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F5" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H5" t="n">
         <v>16.44142755506243</v>
@@ -4568,19 +4568,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4607,10 +4607,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>339.8288664974407</v>
+        <v>281.9482186318187</v>
       </c>
       <c r="C6" t="n">
-        <v>165.3758372163137</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4656,7 +4656,7 @@
         <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O6" t="n">
         <v>570.0333416264414</v>
@@ -4668,28 +4668,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>619.8847831118876</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U6" t="n">
-        <v>412.2910008509983</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V6" t="n">
-        <v>412.2910008509983</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W6" t="n">
-        <v>412.2910008509983</v>
+        <v>450.1635556518867</v>
       </c>
       <c r="X6" t="n">
-        <v>412.2910008509983</v>
+        <v>450.1635556518867</v>
       </c>
       <c r="Y6" t="n">
-        <v>412.2910008509983</v>
+        <v>450.1635556518867</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4741,34 +4741,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>255.5008658160403</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C8" t="n">
-        <v>47.90708355515102</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D8" t="n">
-        <v>47.90708355515102</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E8" t="n">
-        <v>47.90708355515102</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F8" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
         <v>16.44142755506243</v>
@@ -4814,7 +4814,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4826,28 +4826,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X8" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y8" t="n">
-        <v>255.5008658160403</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>190.8944568361894</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
         <v>16.44142755506243</v>
@@ -4890,16 +4890,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4914,19 +4914,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>813.6758036188573</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V9" t="n">
-        <v>813.6758036188573</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W9" t="n">
-        <v>606.0820213579681</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X9" t="n">
-        <v>398.4882390970787</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.8944568361894</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4978,34 +4978,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5024,25 +5024,25 @@
         <v>453.0030327087026</v>
       </c>
       <c r="E11" t="n">
+        <v>453.0030327087026</v>
+      </c>
+      <c r="F11" t="n">
+        <v>453.0030327087026</v>
+      </c>
+      <c r="G11" t="n">
         <v>245.4092504478133</v>
-      </c>
-      <c r="F11" t="n">
-        <v>37.81546818692397</v>
-      </c>
-      <c r="G11" t="n">
-        <v>37.81546818692397</v>
       </c>
       <c r="H11" t="n">
         <v>37.81546818692397</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
         <v>176.2910403306274</v>
@@ -5072,13 +5072,13 @@
         <v>660.5968149695918</v>
       </c>
       <c r="U11" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V11" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W11" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X11" t="n">
         <v>453.0030327087026</v>
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5124,19 +5124,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M12" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M12" t="n">
-        <v>435.9652341458732</v>
-      </c>
       <c r="N12" t="n">
-        <v>639.4279001397708</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5145,25 +5145,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>807.4381113577983</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>807.4381113577983</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>807.4381113577983</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V12" t="n">
-        <v>807.4381113577983</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W12" t="n">
-        <v>599.8443290969091</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X12" t="n">
-        <v>392.2505468360198</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y12" t="n">
-        <v>184.6567645751305</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5215,34 +5215,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="14">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>564.7644888520197</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>564.7644888520197</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>415.8300791907684</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>415.8300791907684</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>269.2955212176533</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5364,10 +5364,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
         <v>639.4279001397708</v>
@@ -5379,28 +5379,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>732.9798258720878</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>732.9798258720878</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>732.9798258720878</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>732.9798258720878</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V15" t="n">
-        <v>732.9798258720878</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W15" t="n">
-        <v>732.9798258720878</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X15" t="n">
-        <v>732.9798258720878</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>732.9798258720878</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5458,28 +5458,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>223.7040404982626</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="C18" t="n">
-        <v>223.7040404982626</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="D18" t="n">
-        <v>223.7040404982626</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="E18" t="n">
-        <v>223.7040404982626</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F18" t="n">
-        <v>223.7040404982626</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5601,10 +5601,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5619,25 +5619,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5822017426153</v>
       </c>
       <c r="T18" t="n">
-        <v>894.931267199149</v>
+        <v>861.5822017426153</v>
       </c>
       <c r="U18" t="n">
-        <v>666.7076489355381</v>
+        <v>861.5822017426153</v>
       </c>
       <c r="V18" t="n">
-        <v>431.5555407037955</v>
+        <v>626.4300935108727</v>
       </c>
       <c r="W18" t="n">
-        <v>431.5555407037955</v>
+        <v>626.4300935108727</v>
       </c>
       <c r="X18" t="n">
-        <v>223.7040404982626</v>
+        <v>626.4300935108727</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.7040404982626</v>
+        <v>418.6697947459187</v>
       </c>
     </row>
     <row r="19">
@@ -5692,25 +5692,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5771,28 +5771,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="T20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U20" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="T20" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="W20" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
         <v>19.28114311021272</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>790.6398109613051</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C21" t="n">
-        <v>726.0875267598396</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D21" t="n">
-        <v>577.1531170985884</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E21" t="n">
-        <v>417.9156620931329</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G21" t="n">
         <v>132.6502787026334</v>
@@ -5838,43 +5838,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>951.257826330474</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>777.8404817811429</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>575.6538871399089</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>575.6538871399089</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>340.5017789081662</v>
       </c>
       <c r="W21" t="n">
-        <v>790.6398109613051</v>
+        <v>340.5017789081662</v>
       </c>
       <c r="X21" t="n">
-        <v>790.6398109613051</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="Y21" t="n">
-        <v>790.6398109613051</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5944,16 +5944,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>251.0958939094183</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>251.0958939094183</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>251.0958939094183</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5613359363032</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6069,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U24" t="n">
-        <v>913.4938269565423</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V24" t="n">
-        <v>678.3417187247995</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W24" t="n">
-        <v>434.8929420806995</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>425.5489231905453</v>
       </c>
     </row>
     <row r="25">
@@ -6169,13 +6169,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>366.1018663125844</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U26" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V26" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>325.0531560887832</v>
+        <v>203.827050448935</v>
       </c>
       <c r="C27" t="n">
-        <v>325.0531560887832</v>
+        <v>203.827050448935</v>
       </c>
       <c r="D27" t="n">
-        <v>325.0531560887832</v>
+        <v>54.89264078768377</v>
       </c>
       <c r="E27" t="n">
-        <v>165.8157010833278</v>
+        <v>54.89264078768377</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>54.89264078768377</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>54.89264078768377</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>54.89264078768377</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,13 +6312,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W27" t="n">
-        <v>492.3847606029253</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X27" t="n">
-        <v>492.3847606029253</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y27" t="n">
-        <v>325.0531560887832</v>
+        <v>203.827050448935</v>
       </c>
     </row>
     <row r="28">
@@ -6403,16 +6403,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6491,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>319.0683498528888</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="C30" t="n">
-        <v>319.0683498528888</v>
+        <v>245.4309883451193</v>
       </c>
       <c r="D30" t="n">
-        <v>170.1339401916375</v>
+        <v>96.49657868386802</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>96.49657868386802</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>96.49657868386802</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>96.49657868386802</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>96.49657868386802</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6543,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>487.2836868729568</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W30" t="n">
-        <v>487.2836868729568</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X30" t="n">
-        <v>487.2836868729568</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="Y30" t="n">
-        <v>487.2836868729568</v>
+        <v>419.8840176262463</v>
       </c>
     </row>
     <row r="31">
@@ -6646,19 +6646,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6728,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V32" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W32" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X32" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.8157010833278</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6789,10 +6789,10 @@
         <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6807,22 +6807,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>770.1061565725395</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>541.8825383089286</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>541.8825383089286</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>541.8825383089286</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X33" t="n">
-        <v>334.0310381033958</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y33" t="n">
-        <v>334.0310381033958</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>728.6161971483371</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U35" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="W35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="X35" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="W35" t="n">
+      <c r="Y35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="X35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>432.4774131586771</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C36" t="n">
-        <v>258.02438387755</v>
+        <v>486.248002141161</v>
       </c>
       <c r="D36" t="n">
-        <v>258.02438387755</v>
+        <v>337.3135924799097</v>
       </c>
       <c r="E36" t="n">
-        <v>258.02438387755</v>
+        <v>337.3135924799097</v>
       </c>
       <c r="F36" t="n">
-        <v>258.02438387755</v>
+        <v>190.7790345067947</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>190.7790345067947</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,13 +7020,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M36" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7047,19 +7047,19 @@
         <v>660.701031422288</v>
       </c>
       <c r="U36" t="n">
-        <v>432.4774131586771</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V36" t="n">
-        <v>432.4774131586771</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W36" t="n">
-        <v>432.4774131586771</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X36" t="n">
-        <v>432.4774131586771</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y36" t="n">
-        <v>432.4774131586771</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="37">
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
         <v>829.5248650203655</v>
@@ -7135,10 +7135,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C38" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>168.215552771464</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C39" t="n">
-        <v>168.215552771464</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D39" t="n">
         <v>19.28114311021272</v>
@@ -7257,7 +7257,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
         <v>486.8488635328713</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>660.701031422288</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W39" t="n">
-        <v>417.2522547781879</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X39" t="n">
-        <v>209.4007545726551</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y39" t="n">
-        <v>168.215552771464</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="40">
@@ -7348,13 +7348,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
         <v>19.28114311021272</v>
@@ -7394,16 +7394,16 @@
         <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
         <v>16.44142755506243</v>
@@ -7412,19 +7412,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7433,10 +7433,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T41" t="n">
         <v>639.2227743377304</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>614.4775954922324</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="C42" t="n">
-        <v>584.516985787305</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="D42" t="n">
-        <v>435.5825761260537</v>
+        <v>292.12584128165</v>
       </c>
       <c r="E42" t="n">
-        <v>276.3451211205982</v>
+        <v>132.8883862761945</v>
       </c>
       <c r="F42" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7494,10 +7494,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N42" t="n">
         <v>618.608711759224</v>
@@ -7515,25 +7515,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y42" t="n">
-        <v>614.4775954922324</v>
+        <v>441.0602509429012</v>
       </c>
     </row>
     <row r="43">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.90708355515102</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C44" t="n">
-        <v>47.90708355515102</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D44" t="n">
-        <v>47.90708355515102</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E44" t="n">
-        <v>47.90708355515102</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
-        <v>463.0946480769296</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T44" t="n">
-        <v>463.0946480769296</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5008658160403</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V44" t="n">
-        <v>47.90708355515102</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W44" t="n">
-        <v>47.90708355515102</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X44" t="n">
-        <v>47.90708355515102</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.90708355515102</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="45">
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>645.6008794760112</v>
+        <v>204.697218590109</v>
       </c>
       <c r="C45" t="n">
-        <v>471.1478501948842</v>
+        <v>204.697218590109</v>
       </c>
       <c r="D45" t="n">
-        <v>322.2134405336329</v>
+        <v>55.76280892885777</v>
       </c>
       <c r="E45" t="n">
-        <v>162.9759855281775</v>
+        <v>55.76280892885777</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>55.76280892885777</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>55.76280892885777</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>211.6833797714288</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>415.1460457653264</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>618.608711759224</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O45" t="n">
         <v>822.0713777531216</v>
@@ -7755,22 +7755,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U45" t="n">
-        <v>813.8162164960793</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V45" t="n">
-        <v>813.8162164960793</v>
+        <v>204.697218590109</v>
       </c>
       <c r="W45" t="n">
-        <v>813.8162164960793</v>
+        <v>204.697218590109</v>
       </c>
       <c r="X45" t="n">
-        <v>813.8162164960793</v>
+        <v>204.697218590109</v>
       </c>
       <c r="Y45" t="n">
-        <v>813.8162164960793</v>
+        <v>204.697218590109</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8070,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>143.091025904242</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8225,13 +8225,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8304,10 +8304,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8462,10 +8462,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O8" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8538,19 +8538,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>163.6582985944894</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,10 +8690,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>397.2306702988408</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
@@ -8772,22 +8772,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9012,13 +9012,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O15" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9249,13 +9249,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>301.248502863135</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,7 +9960,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9969,7 +9969,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>312.5030352242461</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10437,13 +10437,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10668,16 +10668,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,10 +10905,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -11060,10 +11060,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L41" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,13 +11142,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>328.5558052311782</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N44" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>209.1446748894994</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11388,7 +11388,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22550,16 +22550,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>234.2826201338976</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22592,28 +22592,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>191.9448501240437</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22638,16 +22638,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,28 +22671,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>162.911338874073</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22723,10 +22723,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>44.53299916777313</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22796,10 +22796,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>234.2826201338976</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22847,10 +22847,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="6">
@@ -22860,13 +22860,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94.79567063984527</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22881,10 +22881,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,22 +22908,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>155.347244537178</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22960,10 +22960,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23021,16 +23021,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>225.855928360474</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23039,7 +23039,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>179.3248901303182</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23066,13 +23066,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23084,7 +23084,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -23100,7 +23100,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23154,10 +23154,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>217.6297636880532</v>
+        <v>44.92126469973746</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
         <v>46.1771387226392</v>
@@ -23166,7 +23166,7 @@
         <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23197,10 +23197,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23264,22 +23264,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
-        <v>201.2648786994755</v>
+        <v>189.315589344863</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,7 +23321,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23346,19 +23346,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>98.25343615124612</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,22 +23385,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>157.1962373724678</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0.1648513390239543</v>
@@ -23434,10 +23434,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23571,31 +23571,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>11.95719779041961</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23628,16 +23628,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>44.92126469973746</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23677,7 +23677,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23820,16 +23820,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,13 +23859,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>70.23296687349715</v>
       </c>
       <c r="T18" t="n">
-        <v>131.7300992664493</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23874,10 +23874,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23932,10 +23932,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24011,19 +24011,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,19 +24048,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>108.8017376288649</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24093,25 +24093,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>87.48649826428255</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,13 +24215,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,10 +24248,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24263,10 +24263,10 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>275.3266899823873</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24285,7 +24285,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24294,10 +24294,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>52.91612626538104</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24409,7 +24409,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24418,7 +24418,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24443,10 +24443,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>333.4992862499586</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24485,10 +24485,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24497,10 +24497,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>149.0074258151476</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24525,13 +24525,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24540,10 +24540,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>54.8878414769766</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,7 +24576,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24585,10 +24585,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>40.02440730830375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24643,10 +24643,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24655,7 +24655,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24731,10 +24731,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
@@ -24743,10 +24743,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,16 +24756,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>8.300811344790418</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24777,7 +24777,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>12.95335163349634</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24807,22 +24807,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24886,7 +24886,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24901,7 +24901,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>152.5300167065108</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,7 +24926,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24968,22 +24968,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25005,7 +25005,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25047,16 +25047,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>8.153239746105839</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>153.5901843066936</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25126,7 +25126,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25169,7 +25169,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,22 +25196,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>230.1618975371121</v>
       </c>
       <c r="V35" t="n">
-        <v>107.53913272771</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25236,25 +25236,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>103.3663772177161</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>31.84916460529537</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25287,7 +25287,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25315,7 +25315,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25391,13 +25391,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D38" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25473,7 +25473,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>97.38737029608566</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25515,19 +25515,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
@@ -25536,7 +25536,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>164.9093459941251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25588,16 +25588,16 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S40" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25634,19 +25634,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25673,13 +25673,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>177.8690701461577</v>
       </c>
       <c r="T41" t="n">
-        <v>42.075732182894</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25707,7 +25707,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>143.0474953804376</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25716,13 +25716,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>29.78672325946317</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25755,7 +25755,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,19 +25874,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>375.7250463016238</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>201.2648786994755</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,22 +25907,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25941,31 +25941,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>74.05386800269694</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25995,13 +25995,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>217.7687724365029</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26077,7 +26077,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>441823.4254719013</v>
+        <v>441823.4254719011</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>441823.4254719014</v>
+        <v>441823.4254719013</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>441823.4254719013</v>
+        <v>441823.4254719014</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>441823.4254719011</v>
+        <v>441823.4254719013</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465368.9729778747</v>
+        <v>465368.9729778746</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>465368.9729778746</v>
+        <v>465368.9729778745</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>465368.9729778747</v>
+        <v>465368.9729778746</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>441823.4254719011</v>
+        <v>441823.4254719013</v>
       </c>
     </row>
   </sheetData>
@@ -26326,7 +26326,7 @@
         <v>126206.1134679453</v>
       </c>
       <c r="G2" t="n">
-        <v>132928.5380250659</v>
+        <v>132928.538025066</v>
       </c>
       <c r="H2" t="n">
         <v>132928.5380250659</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="C4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="D4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="E4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="F4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="G4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="P4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1735.192213482755</v>
+        <v>-4822.332132110794</v>
       </c>
       <c r="C6" t="n">
-        <v>67138.56436820709</v>
+        <v>64051.42444957908</v>
       </c>
       <c r="D6" t="n">
-        <v>67138.56436820704</v>
+        <v>64051.42444957908</v>
       </c>
       <c r="E6" t="n">
-        <v>100766.1643682071</v>
+        <v>97679.02444957907</v>
       </c>
       <c r="F6" t="n">
-        <v>100766.1643682071</v>
+        <v>97679.02444957907</v>
       </c>
       <c r="G6" t="n">
-        <v>94884.9750877597</v>
+        <v>91631.13664615636</v>
       </c>
       <c r="H6" t="n">
-        <v>104614.0180619268</v>
+        <v>101360.1796203234</v>
       </c>
       <c r="I6" t="n">
-        <v>104614.0180619268</v>
+        <v>101360.1796203234</v>
       </c>
       <c r="J6" t="n">
-        <v>50841.50717171736</v>
+        <v>47587.66873011395</v>
       </c>
       <c r="K6" t="n">
-        <v>104614.0180619268</v>
+        <v>101360.1796203234</v>
       </c>
       <c r="L6" t="n">
-        <v>104614.0180619268</v>
+        <v>101360.1796203234</v>
       </c>
       <c r="M6" t="n">
-        <v>104614.0180619268</v>
+        <v>101360.1796203234</v>
       </c>
       <c r="N6" t="n">
-        <v>104614.0180619268</v>
+        <v>101360.1796203234</v>
       </c>
       <c r="O6" t="n">
-        <v>100766.1643682071</v>
+        <v>97679.02444957907</v>
       </c>
       <c r="P6" t="n">
-        <v>100766.1643682071</v>
+        <v>97679.02444957904</v>
       </c>
     </row>
   </sheetData>
@@ -34790,13 +34790,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>0.494781459797586</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
@@ -34945,13 +34945,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35024,10 +35024,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="O6" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="O6" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35182,10 +35182,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O8" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35258,19 +35258,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>21.52426467247106</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,10 +35410,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>161.4642553288535</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
@@ -35492,22 +35492,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M12" t="n">
-        <v>91.61977832229879</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="O15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>91.61977832229879</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35969,13 +35969,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798017</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36206,19 +36206,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36689,7 +36689,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>169.9067907798016</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37157,13 +37157,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37388,16 +37388,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37625,10 +37625,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37780,10 +37780,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L41" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37795,7 +37795,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,13 +37862,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N44" t="n">
-        <v>171.5974510766996</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38108,7 +38108,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>639343.3431633484</v>
+        <v>640127.4891013772</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T2" t="n">
-        <v>31.1509994400877</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,61 +910,61 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="6">
@@ -996,7 +998,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,7 +1028,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>97.09432994999946</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>96.34773862374156</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1136,25 +1138,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>169.0708280266249</v>
+      </c>
+      <c r="H8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1266,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>205.5178444382804</v>
+        <v>62.35969771424954</v>
       </c>
       <c r="W9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,61 +1384,61 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="I11" t="n">
-        <v>21.16030022554292</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R11" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,31 +1448,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>5.211223902333198</v>
       </c>
       <c r="F12" t="n">
-        <v>46.81577624213776</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1503,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,58 +1618,58 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="U14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G14" t="n">
+      <c r="V14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H14" t="n">
+      <c r="W14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I14" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1686,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>162.1980111365649</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1740,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1847,16 +1849,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1886,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1932,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="S18" t="n">
-        <v>101.4502042303407</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2044,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="20">
@@ -2123,31 +2125,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>234.288905720311</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,19 +2162,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>63.9067613594508</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -2205,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>12.67133588836058</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2327,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,16 +2408,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>84.4273908978296</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2555,52 +2557,52 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
         <v>21.18375537072436</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -2612,7 +2614,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2637,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.50879137443848</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2682,13 +2684,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>4.140379606179081</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2697,7 +2699,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2755,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2843,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2877,22 +2879,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>52.74848097608486</v>
       </c>
       <c r="I30" t="n">
-        <v>76.44328121791874</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2928,13 +2930,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3083,19 +3085,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3156,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>97.76646051984098</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>98.10479885422598</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3281,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>21.18375537072436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3342,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>171.0057867469176</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>80.38627963120109</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3427,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,13 +3505,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3585,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>50.05769526855308</v>
+        <v>70.64856914772001</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3633,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3700,16 +3702,16 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3746,20 +3748,20 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F41" t="n">
+      <c r="I41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
@@ -3782,16 +3784,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.15099944008764</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3819,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>29.6610036078781</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3828,13 +3830,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>115.2824891339207</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3992,13 +3994,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I44" t="n">
-        <v>9.211010870930398</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,28 +4024,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="Y44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>52.64939492479343</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4071,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>38.18157623379952</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4113,7 +4115,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4334,10 +4336,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
         <v>583.2163723184226</v>
@@ -4352,28 +4354,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="3">
@@ -4416,40 +4418,40 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>548.724319600695</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>807.2329312674061</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>633.815586718075</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V3" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W3" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X3" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
         <v>16.44142755506243</v>
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C5" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D5" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F5" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
         <v>16.44142755506243</v>
@@ -4574,7 +4576,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4610,7 +4612,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y5" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>281.9482186318187</v>
+        <v>281.1940859790329</v>
       </c>
       <c r="C6" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="D6" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="E6" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="F6" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="G6" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4650,13 +4652,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
         <v>570.0333416264414</v>
@@ -4674,22 +4676,22 @@
         <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>547.4845037566762</v>
+        <v>449.409422999101</v>
       </c>
       <c r="U6" t="n">
-        <v>547.4845037566762</v>
+        <v>449.409422999101</v>
       </c>
       <c r="V6" t="n">
-        <v>547.4845037566762</v>
+        <v>449.409422999101</v>
       </c>
       <c r="W6" t="n">
-        <v>450.1635556518867</v>
+        <v>449.409422999101</v>
       </c>
       <c r="X6" t="n">
-        <v>450.1635556518867</v>
+        <v>449.409422999101</v>
       </c>
       <c r="Y6" t="n">
-        <v>450.1635556518867</v>
+        <v>449.409422999101</v>
       </c>
     </row>
     <row r="7">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C8" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D8" t="n">
-        <v>199.2900309704538</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E8" t="n">
-        <v>199.2900309704538</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4811,13 +4813,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4847,7 +4849,7 @@
         <v>614.4775954922324</v>
       </c>
       <c r="Y8" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E9" t="n">
         <v>16.44142755506243</v>
@@ -4887,19 +4889,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
-        <v>435.9652341458732</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N9" t="n">
-        <v>639.4279001397708</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4914,19 +4916,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V9" t="n">
-        <v>431.628992076841</v>
+        <v>551.4880018414752</v>
       </c>
       <c r="W9" t="n">
-        <v>224.0352098159517</v>
+        <v>343.894219580586</v>
       </c>
       <c r="X9" t="n">
-        <v>16.44142755506243</v>
+        <v>343.894219580586</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.44142755506243</v>
+        <v>343.894219580586</v>
       </c>
     </row>
     <row r="10">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>453.0030327087026</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>453.0030327087026</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>453.0030327087026</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>453.0030327087026</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>453.0030327087026</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5045,46 +5047,46 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>453.0030327087026</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y11" t="n">
-        <v>453.0030327087026</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>406.8838132313431</v>
+        <v>345.09272902505</v>
       </c>
       <c r="C12" t="n">
-        <v>406.8838132313431</v>
+        <v>170.639699743923</v>
       </c>
       <c r="D12" t="n">
-        <v>406.8838132313431</v>
+        <v>21.70529008267172</v>
       </c>
       <c r="E12" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O12" t="n">
-        <v>752.1869855945927</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U12" t="n">
-        <v>614.4775954922324</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V12" t="n">
-        <v>614.4775954922324</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W12" t="n">
-        <v>614.4775954922324</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y12" t="n">
-        <v>406.8838132313431</v>
+        <v>513.308066045118</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5285,7 +5287,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5306,22 +5308,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>450.6412206068132</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>301.706810945562</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>301.706810945562</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G15" t="n">
         <v>16.44142755506243</v>
@@ -5364,10 +5366,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O15" t="n">
         <v>639.4279001397708</v>
@@ -5388,19 +5390,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X15" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="S18" t="n">
-        <v>861.5822017426153</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T18" t="n">
-        <v>861.5822017426153</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U18" t="n">
-        <v>861.5822017426153</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V18" t="n">
-        <v>626.4300935108727</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W18" t="n">
-        <v>626.4300935108727</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>626.4300935108727</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5692,28 +5694,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5771,28 +5773,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
         <v>19.28114311021272</v>
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>132.6502787026334</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="C21" t="n">
-        <v>132.6502787026334</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D21" t="n">
-        <v>132.6502787026334</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E21" t="n">
-        <v>132.6502787026334</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F21" t="n">
-        <v>132.6502787026334</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G21" t="n">
         <v>132.6502787026334</v>
@@ -5838,43 +5840,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>951.257826330474</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>777.8404817811429</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>575.6538871399089</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>575.6538871399089</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>340.5017789081662</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W21" t="n">
-        <v>340.5017789081662</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X21" t="n">
-        <v>132.6502787026334</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y21" t="n">
-        <v>132.6502787026334</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5944,16 +5946,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>425.5489231905453</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C24" t="n">
-        <v>251.0958939094183</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D24" t="n">
-        <v>251.0958939094183</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E24" t="n">
-        <v>251.0958939094183</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="F24" t="n">
-        <v>104.5613359363032</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6069,13 +6071,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>660.701031422288</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V24" t="n">
-        <v>425.5489231905453</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W24" t="n">
-        <v>425.5489231905453</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X24" t="n">
-        <v>425.5489231905453</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y24" t="n">
-        <v>425.5489231905453</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="25">
@@ -6169,28 +6171,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T26" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V26" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>203.827050448935</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C27" t="n">
-        <v>203.827050448935</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D27" t="n">
-        <v>54.89264078768377</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E27" t="n">
-        <v>54.89264078768377</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>54.89264078768377</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>54.89264078768377</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>54.89264078768377</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6306,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>858.7054244411188</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>858.7054244411188</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>630.4818061775079</v>
       </c>
       <c r="V27" t="n">
-        <v>862.8876260635219</v>
+        <v>630.4818061775079</v>
       </c>
       <c r="W27" t="n">
-        <v>619.4388494194218</v>
+        <v>387.0330295334078</v>
       </c>
       <c r="X27" t="n">
-        <v>411.587349213889</v>
+        <v>387.0330295334078</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.827050448935</v>
+        <v>179.2727307684539</v>
       </c>
     </row>
     <row r="28">
@@ -6403,16 +6405,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="U29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="X29" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U29" t="n">
+      <c r="Y29" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="V29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>419.8840176262463</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="C30" t="n">
-        <v>245.4309883451193</v>
+        <v>520.2192597623269</v>
       </c>
       <c r="D30" t="n">
-        <v>96.49657868386802</v>
+        <v>371.2848501010757</v>
       </c>
       <c r="E30" t="n">
-        <v>96.49657868386802</v>
+        <v>212.0473950956202</v>
       </c>
       <c r="F30" t="n">
-        <v>96.49657868386802</v>
+        <v>212.0473950956202</v>
       </c>
       <c r="G30" t="n">
-        <v>96.49657868386802</v>
+        <v>73.31656967823568</v>
       </c>
       <c r="H30" t="n">
-        <v>96.49657868386802</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6552,13 +6554,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6576,16 +6578,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>627.7355178317791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>627.7355178317791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X30" t="n">
-        <v>419.8840176262463</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y30" t="n">
-        <v>419.8840176262463</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="31">
@@ -6646,10 +6648,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>738.7078125165641</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>738.7078125165641</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V32" t="n">
-        <v>738.7078125165641</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W32" t="n">
-        <v>738.7078125165641</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X32" t="n">
-        <v>738.7078125165641</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,7 +6755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>865.3031549855443</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>663.1165603443104</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W33" t="n">
-        <v>401.5856725968725</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>193.7341723913397</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T35" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>660.701031422288</v>
+        <v>192.0142610363921</v>
       </c>
       <c r="C36" t="n">
-        <v>486.248002141161</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>337.3135924799097</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>337.3135924799097</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>190.7790345067947</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>190.7790345067947</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7017,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>234.810827406191</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>660.701031422288</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V36" t="n">
-        <v>660.701031422288</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W36" t="n">
-        <v>660.701031422288</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X36" t="n">
-        <v>660.701031422288</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y36" t="n">
-        <v>660.701031422288</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="37">
@@ -7069,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
         <v>829.5248650203655</v>
@@ -7135,10 +7137,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>69.84447166430675</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="C39" t="n">
-        <v>69.84447166430675</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="D39" t="n">
         <v>19.28114311021272</v>
@@ -7257,7 +7259,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
         <v>486.8488635328713</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>485.4562706347935</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X39" t="n">
-        <v>277.6047704292607</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="Y39" t="n">
-        <v>69.84447166430675</v>
+        <v>90.64333416851576</v>
       </c>
     </row>
     <row r="40">
@@ -7348,13 +7350,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
         <v>19.28114311021272</v>
@@ -7394,16 +7396,16 @@
         <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="F41" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="G41" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="H41" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="F41" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="G41" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="H41" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
         <v>16.44142755506243</v>
@@ -7412,31 +7414,31 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>85.87524403801982</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>265.9510956226784</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
-        <v>469.413761616576</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T41" t="n">
         <v>639.2227743377304</v>
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>441.0602509429012</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C42" t="n">
-        <v>441.0602509429012</v>
+        <v>584.516985787305</v>
       </c>
       <c r="D42" t="n">
-        <v>292.12584128165</v>
+        <v>435.5825761260537</v>
       </c>
       <c r="E42" t="n">
-        <v>132.8883862761945</v>
+        <v>276.3451211205982</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7491,7 +7493,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
         <v>211.6833797714288</v>
@@ -7515,25 +7517,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V42" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W42" t="n">
-        <v>441.0602509429012</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X42" t="n">
-        <v>441.0602509429012</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y42" t="n">
-        <v>441.0602509429012</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="43">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>245.4092504478133</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>245.4092504478133</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D44" t="n">
-        <v>245.4092504478133</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E44" t="n">
-        <v>245.4092504478133</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F44" t="n">
-        <v>245.4092504478133</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G44" t="n">
-        <v>37.81546818692397</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H44" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7652,7 +7654,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
         <v>379.753706324525</v>
@@ -7670,28 +7672,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>453.0030327087026</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>453.0030327087026</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V44" t="n">
-        <v>453.0030327087026</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W44" t="n">
-        <v>453.0030327087026</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X44" t="n">
-        <v>453.0030327087026</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y44" t="n">
-        <v>453.0030327087026</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>204.697218590109</v>
+        <v>244.0756638309303</v>
       </c>
       <c r="C45" t="n">
-        <v>204.697218590109</v>
+        <v>69.62263454980328</v>
       </c>
       <c r="D45" t="n">
-        <v>55.76280892885777</v>
+        <v>69.62263454980328</v>
       </c>
       <c r="E45" t="n">
-        <v>55.76280892885777</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>55.76280892885777</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>55.76280892885777</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N45" t="n">
-        <v>626.8294255367553</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7761,16 +7763,16 @@
         <v>412.2910008509983</v>
       </c>
       <c r="V45" t="n">
-        <v>204.697218590109</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W45" t="n">
-        <v>204.697218590109</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="X45" t="n">
-        <v>204.697218590109</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="Y45" t="n">
-        <v>204.697218590109</v>
+        <v>412.2910008509983</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7984,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8064,19 +8066,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O3" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,10 +8224,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8298,16 +8300,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8459,16 +8461,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N8" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>233.7538122443171</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
@@ -8702,10 +8704,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
@@ -8784,10 +8786,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8933,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9012,13 +9014,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N15" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9486,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O21" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9969,10 +9971,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10200,16 +10202,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O30" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,10 +10907,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>290.2250192095839</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>335.768472927719</v>
+        <v>209.1446748894994</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11300,10 +11302,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M44" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11376,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11388,13 +11390,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>339.8103375922893</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22553,7 +22555,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22562,10 +22564,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>158.4546847345297</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22592,28 +22594,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>191.9448501240437</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>85.46777213178478</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>24.75286782224003</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C5" t="n">
         <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22796,10 +22798,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.2178212748162</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -22884,7 +22886,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22914,7 +22916,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>103.0703987448221</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22923,7 +22925,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>155.347244537178</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -23024,25 +23026,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>225.855928360474</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>246.2319094885102</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23106,7 +23108,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23154,16 +23156,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>44.92126469973746</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>170.4408894351757</v>
       </c>
       <c r="W9" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>189.315589344863</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23312,7 +23314,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23334,31 +23336,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>152.4338565530678</v>
       </c>
       <c r="F12" t="n">
-        <v>98.25343615124612</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23391,7 +23393,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23434,10 +23436,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23546,16 +23548,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23574,19 +23576,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>10.51048785175084</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23628,16 +23630,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>44.92126469973746</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23735,16 +23737,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23820,19 +23822,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>64.7505686791048</v>
       </c>
       <c r="S18" t="n">
-        <v>70.23296687349715</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23932,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -24011,31 +24013,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>114.952062997102</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,19 +24050,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>108.8017376288649</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24093,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>87.48649826428255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,13 +24217,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>6.725383157348171</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24266,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24285,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24294,16 +24296,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>52.91612626538104</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>25.50780978689276</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24330,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24409,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24443,10 +24445,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>333.4992862499586</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24488,7 +24490,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24500,7 +24502,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24525,10 +24527,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24540,7 +24542,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>54.8878414769766</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,13 +24572,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>167.5427914976588</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24585,7 +24587,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24643,10 +24645,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,7 +24682,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,22 +24733,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24765,22 +24767,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>59.4869632604116</v>
       </c>
       <c r="I30" t="n">
-        <v>12.95335163349634</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24816,13 +24818,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24886,13 +24888,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>152.5300167065108</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24971,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>129.0278429749881</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25044,25 +25046,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>73.91671058399685</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>153.5901843066936</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25126,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25169,7 +25171,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25199,16 +25201,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>230.1618975371121</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25230,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1.70271224139816</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>31.84916460529537</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25315,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25375,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25391,13 +25393,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>162.9782053421103</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25473,7 +25475,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>97.38737029608566</v>
+        <v>76.79649641691874</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25521,22 +25523,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25588,16 +25590,16 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25634,19 +25636,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25670,16 +25672,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>177.8690701461577</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>52.06643139743881</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25707,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>143.0474953804376</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25716,13 +25718,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>29.78672325946317</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25755,7 +25757,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25880,13 +25882,13 @@
         <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
-        <v>201.2648786994755</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25928,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>198.7016825117765</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25941,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>104.9956855306075</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25959,13 +25961,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>74.05386800269694</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26001,7 +26003,7 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>441823.4254719011</v>
+        <v>441823.4254719013</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>441823.4254719014</v>
+        <v>441823.4254719012</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>441823.4254719013</v>
+        <v>441823.4254719011</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>465368.9729778745</v>
+        <v>465368.9729778746</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>441823.4254719013</v>
+        <v>441823.4254719011</v>
       </c>
     </row>
   </sheetData>
@@ -26326,10 +26328,10 @@
         <v>126206.1134679453</v>
       </c>
       <c r="G2" t="n">
+        <v>132928.5380250659</v>
+      </c>
+      <c r="H2" t="n">
         <v>132928.538025066</v>
-      </c>
-      <c r="H2" t="n">
-        <v>132928.5380250659</v>
       </c>
       <c r="I2" t="n">
         <v>132928.5380250659</v>
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4822.332132110794</v>
+        <v>-4822.332132110758</v>
       </c>
       <c r="C6" t="n">
-        <v>64051.42444957908</v>
+        <v>64051.42444957906</v>
       </c>
       <c r="D6" t="n">
-        <v>64051.42444957908</v>
+        <v>64051.42444957907</v>
       </c>
       <c r="E6" t="n">
-        <v>97679.02444957907</v>
+        <v>97679.02444957908</v>
       </c>
       <c r="F6" t="n">
-        <v>97679.02444957907</v>
+        <v>97679.02444957908</v>
       </c>
       <c r="G6" t="n">
-        <v>91631.13664615636</v>
+        <v>91631.13664615633</v>
       </c>
       <c r="H6" t="n">
-        <v>101360.1796203234</v>
+        <v>101360.1796203235</v>
       </c>
       <c r="I6" t="n">
         <v>101360.1796203234</v>
       </c>
       <c r="J6" t="n">
-        <v>47587.66873011395</v>
+        <v>47587.66873011399</v>
       </c>
       <c r="K6" t="n">
         <v>101360.1796203234</v>
@@ -26561,7 +26563,7 @@
         <v>97679.02444957907</v>
       </c>
       <c r="P6" t="n">
-        <v>97679.02444957904</v>
+        <v>97679.02444957905</v>
       </c>
     </row>
   </sheetData>
@@ -34702,13 +34704,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34784,19 +34786,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N3" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O3" t="n">
-        <v>70.5902951096252</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,10 +34944,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N5" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35018,16 +35020,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="O6" t="n">
-        <v>21.52426467247106</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35179,16 +35181,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
+        <v>171.5974510766996</v>
+      </c>
+      <c r="N8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N8" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>91.61977832229879</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,7 +35415,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
@@ -35422,10 +35424,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
@@ -35504,10 +35506,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,10 +35655,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N14" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35732,13 +35734,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N15" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35963,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36206,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36689,10 +36691,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36920,16 +36922,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37780,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>70.13516816460341</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>197.2140931478448</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -38020,10 +38022,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M44" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38096,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38108,13 +38110,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>197.2140931478448</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>640127.4891013772</v>
+        <v>535894.990837934</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
         <v>205.5178444382804</v>
@@ -676,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>80.86228322859426</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>14.69006202085835</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,62 +895,62 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>31.1509994400877</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
+      <c r="T5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>97.09432994999946</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>39.82778746869524</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,61 +1147,61 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I8" t="n">
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>28.72815266929518</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V9" t="n">
-        <v>62.35969771424954</v>
-      </c>
-      <c r="W9" t="n">
+      <c r="Y9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,73 +1369,73 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>19.20171008547518</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>181.0201173812374</v>
       </c>
       <c r="Y11" t="n">
         <v>205.5178444382804</v>
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>5.211223902333198</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
         <v>205.5178444382804</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>31.15099944008764</v>
       </c>
       <c r="T14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>162.1980111365649</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1739,16 +1739,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>205.5178444382804</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1849,17 +1849,17 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>212.2853856434421</v>
-      </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>100.3796369526212</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
     </row>
     <row r="19">
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>19.7279353865638</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2125,25 +2125,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2162,22 +2162,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>63.9067613594508</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>83.03189205754168</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2241,52 +2241,52 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>234.288905720311</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.265316057196634</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2462,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2475,70 +2475,70 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,20 +2557,20 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
@@ -2599,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -2614,7 +2614,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2636,25 +2636,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>128.5267175894818</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>4.140379606179081</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,19 +2794,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,31 +2870,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>52.74848097608486</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3088,10 +3088,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3125,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>36.85222050445789</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>97.76646051984098</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -3173,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3201,55 +3201,55 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>80.33470701582003</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>165.5971668681845</v>
       </c>
       <c r="C36" t="n">
-        <v>171.0057867469176</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3365,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3395,22 +3395,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3429,64 +3429,64 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,23 +3502,23 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>70.64856914772001</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3641,16 +3641,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>97.01986919358308</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3754,52 +3754,52 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I41" t="n">
+      <c r="U41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>171.0294181666926</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
       <c r="V41" t="n">
-        <v>205.5178444382804</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3821,28 +3821,28 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>29.6610036078781</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>7.565027066663836</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>205.5178444382804</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>52.64939492479343</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4109,19 +4109,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C2" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D2" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E2" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4333,19 +4333,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4372,10 +4372,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="3">
@@ -4418,43 +4418,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>807.2329312674061</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>633.815586718075</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>431.628992076841</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U3" t="n">
-        <v>224.0352098159517</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V3" t="n">
-        <v>224.0352098159517</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W3" t="n">
-        <v>16.44142755506243</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="X3" t="n">
-        <v>16.44142755506243</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>98.12050152333947</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4518,22 +4518,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>431.628992076841</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="E5" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="F5" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="H5" t="n">
         <v>16.44142755506243</v>
@@ -4570,16 +4570,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4591,28 +4591,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="Y5" t="n">
-        <v>614.4775954922324</v>
+        <v>47.90708355515102</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>281.1940859790329</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
         <v>16.44142755506243</v>
@@ -4652,46 +4652,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T6" t="n">
-        <v>449.409422999101</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U6" t="n">
-        <v>449.409422999101</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V6" t="n">
-        <v>449.409422999101</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W6" t="n">
-        <v>449.409422999101</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="X6" t="n">
-        <v>449.409422999101</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y6" t="n">
-        <v>449.409422999101</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>781.8412894009042</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>781.8412894009042</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>781.8412894009042</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>781.8412894009042</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>781.8412894009042</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C8" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M8" t="n">
         <v>469.413761616576</v>
@@ -4834,22 +4834,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>175.6788825605179</v>
+        <v>204.697218590109</v>
       </c>
       <c r="C9" t="n">
-        <v>175.6788825605179</v>
+        <v>204.697218590109</v>
       </c>
       <c r="D9" t="n">
-        <v>175.6788825605179</v>
+        <v>204.697218590109</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>45.45976358465353</v>
       </c>
       <c r="F9" t="n">
         <v>16.44142755506243</v>
@@ -4886,22 +4886,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4913,22 +4913,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U9" t="n">
-        <v>614.4775954922324</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V9" t="n">
-        <v>551.4880018414752</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W9" t="n">
-        <v>343.894219580586</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X9" t="n">
-        <v>343.894219580586</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="Y9" t="n">
-        <v>343.894219580586</v>
+        <v>204.697218590109</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4995,19 +4995,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5056,7 +5056,7 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5065,28 +5065,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="X11" t="n">
-        <v>639.2227743377304</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y11" t="n">
-        <v>431.628992076841</v>
+        <v>236.1051990630351</v>
       </c>
     </row>
     <row r="12">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>345.09272902505</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>170.639699743923</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>21.70529008267172</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
         <v>16.44142755506243</v>
@@ -5123,49 +5123,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>626.8294255367553</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>809.472903150106</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W12" t="n">
-        <v>720.9018483060073</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X12" t="n">
-        <v>720.9018483060073</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y12" t="n">
-        <v>513.308066045118</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
         <v>16.44142755506243</v>
@@ -5287,13 +5287,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5302,28 +5302,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T14" t="n">
         <v>639.2227743377304</v>
       </c>
       <c r="U14" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="V14" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="W14" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="X14" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="Y14" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="V14" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="W14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="X14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>450.6412206068132</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>301.706810945562</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>301.706810945562</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
         <v>16.44142755506243</v>
@@ -5360,16 +5360,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
+        <v>423.3667595428576</v>
+      </c>
+      <c r="N15" t="n">
         <v>435.9652341458732</v>
-      </c>
-      <c r="N15" t="n">
-        <v>639.4279001397708</v>
       </c>
       <c r="O15" t="n">
         <v>639.4279001397708</v>
@@ -5387,22 +5387,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>204.697218590109</v>
       </c>
       <c r="W15" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X15" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5469,19 +5469,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D17" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E17" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F17" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="18">
@@ -5600,16 +5600,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5618,25 +5618,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>726.1056462496665</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>497.8820279860555</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>262.7299197543128</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y18" t="n">
         <v>19.28114311021272</v>
@@ -5694,28 +5694,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>742.8341567219593</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>499.3853800778592</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V20" t="n">
-        <v>255.9366034337592</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W20" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>790.6398109613051</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>726.0875267598396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5840,10 +5840,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>880.1865574727153</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>645.0344492409727</v>
       </c>
       <c r="W21" t="n">
-        <v>790.6398109613051</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X21" t="n">
-        <v>790.6398109613051</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y21" t="n">
-        <v>790.6398109613051</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5934,28 +5934,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>960.7588564629629</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>960.7588564629629</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>742.8341567219593</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6074,19 +6074,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>327.2640844659515</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>83.81530782185143</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>83.81530782185143</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6186,13 +6186,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6205,16 +6205,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6247,19 +6247,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>942.6594228129348</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>731.528039392485</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V26" t="n">
         <v>262.7299197543128</v>
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>179.2727307684539</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="C27" t="n">
-        <v>179.2727307684539</v>
+        <v>353.5290077603655</v>
       </c>
       <c r="D27" t="n">
-        <v>179.2727307684539</v>
+        <v>353.5290077603655</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>353.5290077603655</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>353.5290077603655</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6308,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>858.7054244411188</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>858.7054244411188</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>630.4818061775079</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>630.4818061775079</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W27" t="n">
-        <v>387.0330295334078</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X27" t="n">
-        <v>387.0330295334078</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="Y27" t="n">
-        <v>179.2727307684539</v>
+        <v>527.9820370414925</v>
       </c>
     </row>
     <row r="28">
@@ -6417,10 +6417,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6442,16 +6442,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6493,19 +6493,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
         <v>506.1786963984129</v>
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>694.6722890434539</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C30" t="n">
-        <v>520.2192597623269</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D30" t="n">
-        <v>371.2848501010757</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E30" t="n">
-        <v>212.0473950956202</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F30" t="n">
-        <v>212.0473950956202</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="G30" t="n">
-        <v>73.31656967823568</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W30" t="n">
-        <v>862.8876260635219</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X30" t="n">
-        <v>862.8876260635219</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y30" t="n">
-        <v>862.8876260635219</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="31">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>728.6161971483371</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>485.167420504237</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V32" t="n">
-        <v>241.7186438601369</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W32" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X32" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>365.4316055857233</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>365.4316055857233</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>216.497195924472</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>57.25974091901651</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>57.25974091901651</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>57.25974091901651</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>865.3031549855443</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>663.1165603443104</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>434.8929420806995</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>434.8929420806995</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>533.6469426057913</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6964,25 +6964,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>731.528039392485</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W35" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>192.0142610363921</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>360.2295980564601</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>360.2295980564601</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X36" t="n">
-        <v>360.2295980564601</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y36" t="n">
-        <v>360.2295980564601</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>477.1596022224361</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="C38" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7204,22 +7204,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>90.64333416851576</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>90.64333416851576</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
         <v>964.0571555106362</v>
@@ -7289,16 +7289,16 @@
         <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>298.4948343740486</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W39" t="n">
-        <v>298.4948343740486</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X39" t="n">
-        <v>90.64333416851576</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y39" t="n">
-        <v>90.64333416851576</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7359,16 +7359,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
         <v>16.44142755506243</v>
@@ -7414,49 +7414,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>603.4426111275161</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>752.6375612701642</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T41" t="n">
-        <v>639.2227743377304</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U41" t="n">
-        <v>639.2227743377304</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="V41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C42" t="n">
-        <v>584.516985787305</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="D42" t="n">
-        <v>435.5825761260537</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="E42" t="n">
-        <v>276.3451211205982</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="F42" t="n">
-        <v>129.8105631474831</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G42" t="n">
-        <v>129.8105631474831</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>211.6833797714288</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7523,19 +7523,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y42" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="43">
@@ -7599,13 +7599,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
         <v>16.44142755506243</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
         <v>224.0352098159517</v>
@@ -7654,7 +7654,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
         <v>379.753706324525</v>
@@ -7669,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="V44" t="n">
-        <v>811.9797623848946</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W44" t="n">
-        <v>811.9797623848946</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X44" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>244.0756638309303</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>69.62263454980328</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>69.62263454980328</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
         <v>16.44142755506243</v>
@@ -7730,22 +7730,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>163.1080096386462</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>570.0333416264414</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7757,22 +7757,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>619.8847831118876</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U45" t="n">
-        <v>412.2910008509983</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V45" t="n">
-        <v>412.2910008509983</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W45" t="n">
-        <v>412.2910008509983</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X45" t="n">
-        <v>412.2910008509983</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y45" t="n">
-        <v>412.2910008509983</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7845,10 +7845,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
         <v>16.44142755506243</v>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7990,13 +7990,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8066,19 +8066,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>152.8659767558044</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,19 +8218,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>360.3696370111358</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>160.0786444523452</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,13 +8455,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>163.6582985944894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8704,10 +8704,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>344.0722242181546</v>
@@ -8780,7 +8780,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.7075060082595</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8935,16 +8935,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9248,10 +9248,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M18" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9260,7 +9260,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9488,13 +9488,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133073</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9722,10 +9722,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>197.6503338623806</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>255.5148970497678</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9971,10 +9971,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10904,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10916,7 +10916,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11071,13 +11071,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>301.368163919873</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>209.1446748894994</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11156,10 +11156,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>261.0929869123474</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11302,10 +11302,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>160.0786444523452</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11390,13 +11390,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
         <v>176.4125256339814</v>
@@ -22564,10 +22564,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>85.67090042127307</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>85.46777213178478</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22758,7 +22758,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>201.7137242822432</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22801,7 +22801,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>308.3238026756795</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22831,13 +22831,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22883,7 +22883,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>103.0703987448221</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>191.0829231826191</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22950,7 +22950,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>106.6061751778739</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>246.2319094885102</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23074,22 +23074,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23111,7 +23111,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>116.3410597240887</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23153,22 +23153,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>170.4408894351757</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23281,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23314,7 +23314,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>232.1439428223613</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>188.7109832972317</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
         <v>180.7200942177732</v>
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>152.4338565530678</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23396,13 +23396,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968219</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
         <v>0.1648513390239543</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23509,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23542,28 +23542,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>177.8690701461577</v>
       </c>
       <c r="T14" t="n">
-        <v>42.075732182894</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23576,19 +23576,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>10.51048785175084</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23627,16 +23627,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>65.32175003622348</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23737,16 +23737,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>150.9660159552153</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>64.7505686791048</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23879,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>170.2754303037659</v>
       </c>
     </row>
     <row r="19">
@@ -23934,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>395.5748021285713</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24013,25 +24013,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>114.952062997102</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24050,22 +24050,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>108.8017376288649</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24098,22 +24098,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>120.394135900372</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>6.725383157348171</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24262,13 +24262,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24305,7 +24305,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>25.50780978689276</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24335,7 +24335,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24350,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24487,13 +24487,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24524,25 +24524,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>8.816799573728787</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>167.5427914976588</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24584,13 +24584,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24657,13 +24657,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,7 +24682,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24733,10 +24733,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>31.13252716541155</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24758,31 +24758,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>59.4869632604116</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>53.98936737787663</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>109.2709771587974</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24976,10 +24976,10 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>129.0278429749881</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25013,13 +25013,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>75.38322373203857</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>73.91671058399685</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25061,10 +25061,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>302.9738112079013</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.9360167816828096</v>
       </c>
       <c r="C36" t="n">
-        <v>1.70271224139816</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25253,10 +25253,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25283,22 +25283,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>135.0690668140378</v>
       </c>
       <c r="D38" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25444,7 +25444,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25475,7 +25475,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>76.79649641691874</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25529,16 +25529,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>154.6751139673365</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25599,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25672,22 +25672,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>52.06643139743881</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>296.6012590300472</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25709,28 +25709,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>143.0474953804376</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>137.50418532672</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25763,16 +25763,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25839,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>133.9569576774867</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25918,22 +25918,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>198.7016825117765</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>104.9956855306075</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25997,19 +25997,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U45" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>441823.4254719013</v>
+        <v>441823.4254719011</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>441823.4254719012</v>
+        <v>441823.4254719013</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>441823.4254719011</v>
+        <v>441823.4254719013</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>465368.9729778746</v>
+        <v>465368.9729778747</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>441823.4254719013</v>
+        <v>441823.4254719012</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>441823.4254719011</v>
+        <v>441823.4254719013</v>
       </c>
     </row>
   </sheetData>
@@ -26331,7 +26331,7 @@
         <v>132928.5380250659</v>
       </c>
       <c r="H2" t="n">
-        <v>132928.538025066</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="I2" t="n">
         <v>132928.5380250659</v>
@@ -26453,7 +26453,7 @@
         <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>16914.68964098084</v>
+        <v>16914.68964098083</v>
       </c>
       <c r="O4" t="n">
         <v>16031.60407651876</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4822.332132110758</v>
+        <v>-17460.49428697129</v>
       </c>
       <c r="C6" t="n">
-        <v>64051.42444957906</v>
+        <v>51413.26229471854</v>
       </c>
       <c r="D6" t="n">
-        <v>64051.42444957907</v>
+        <v>51413.26229471855</v>
       </c>
       <c r="E6" t="n">
-        <v>97679.02444957908</v>
+        <v>85040.86229471854</v>
       </c>
       <c r="F6" t="n">
-        <v>97679.02444957908</v>
+        <v>85040.86229471855</v>
       </c>
       <c r="G6" t="n">
-        <v>91631.13664615633</v>
+        <v>79413.12602611583</v>
       </c>
       <c r="H6" t="n">
-        <v>101360.1796203235</v>
+        <v>89142.16900028293</v>
       </c>
       <c r="I6" t="n">
-        <v>101360.1796203234</v>
+        <v>89142.16900028296</v>
       </c>
       <c r="J6" t="n">
-        <v>47587.66873011399</v>
+        <v>35369.65811007347</v>
       </c>
       <c r="K6" t="n">
-        <v>101360.1796203234</v>
+        <v>89142.16900028296</v>
       </c>
       <c r="L6" t="n">
-        <v>101360.1796203234</v>
+        <v>89142.1690002829</v>
       </c>
       <c r="M6" t="n">
-        <v>101360.1796203234</v>
+        <v>89142.16900028296</v>
       </c>
       <c r="N6" t="n">
-        <v>101360.1796203234</v>
+        <v>89142.16900028297</v>
       </c>
       <c r="O6" t="n">
-        <v>97679.02444957907</v>
+        <v>85040.86229471855</v>
       </c>
       <c r="P6" t="n">
-        <v>97679.02444957905</v>
+        <v>85040.86229471858</v>
       </c>
     </row>
   </sheetData>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
@@ -34710,13 +34710,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>21.52426467247106</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>130.2714255894491</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35020,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35424,10 +35424,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>205.5178444382804</v>
@@ -35500,7 +35500,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>12.72573192223796</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,16 +35655,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
+        <v>12.72573192223801</v>
+      </c>
+      <c r="O15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35968,10 +35968,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M18" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35980,7 +35980,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36208,13 +36208,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>99.81127712997396</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36442,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>55.51629994036225</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>113.3808631277495</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36691,10 +36691,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37636,7 +37636,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37791,13 +37791,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>70.1351681646035</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37876,10 +37876,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,10 +38022,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38098,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38110,13 +38110,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
